--- a/data/sklearn/Iris.xlsx
+++ b/data/sklearn/Iris.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,44 +434,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Feature 1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Feature 2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Feature 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Feature 4</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -479,16 +471,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -496,16 +488,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.385352652072414</v>
+        <v>4.7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -513,16 +505,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.506520522516066</v>
+        <v>4.6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -530,16 +522,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.249201118230253</v>
+        <v>3.6</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -547,16 +539,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B7" t="n">
-        <v>1.939791417006192</v>
+        <v>3.9</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.169714245881954</v>
+        <v>1.7</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -564,16 +556,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.506520522516066</v>
+        <v>4.6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -581,16 +573,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -598,16 +590,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.748856263403368</v>
+        <v>4.4</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -615,16 +607,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.447076479298042</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -632,16 +624,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B12" t="n">
-        <v>1.4793978844889</v>
+        <v>3.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -649,16 +641,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.264184781628763</v>
+        <v>4.8</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -666,16 +658,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.264184781628763</v>
+        <v>4.8</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.447076479298042</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -683,16 +675,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.87002413384702</v>
+        <v>4.3</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.510738807363573</v>
+        <v>1.1</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.447076479298042</v>
+        <v>0.1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -700,16 +692,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>2.169988183264839</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.45390138044997</v>
+        <v>1.2</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -717,16 +709,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B17" t="n">
-        <v>3.090775248299425</v>
+        <v>4.4</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -734,16 +726,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B18" t="n">
-        <v>1.939791417006192</v>
+        <v>3.9</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -751,16 +743,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B19" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -768,16 +760,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B20" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.169714245881954</v>
+        <v>1.7</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -785,16 +777,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B21" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -802,16 +794,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.169714245881954</v>
+        <v>1.7</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -819,16 +811,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B23" t="n">
-        <v>1.4793978844889</v>
+        <v>3.7</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -836,16 +828,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.506520522516066</v>
+        <v>4.6</v>
       </c>
       <c r="B24" t="n">
-        <v>1.249201118230253</v>
+        <v>3.6</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.567576234277176</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -853,16 +845,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.169714245881954</v>
+        <v>1.7</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9205477421368382</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -870,16 +862,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.264184781628763</v>
+        <v>4.8</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.056039392054748</v>
+        <v>1.9</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -887,16 +879,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -904,16 +896,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -921,16 +913,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.779513299854158</v>
+        <v>5.2</v>
       </c>
       <c r="B29" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -938,16 +930,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.779513299854158</v>
+        <v>5.2</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -955,16 +947,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.385352652072414</v>
+        <v>4.7</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -972,16 +964,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.264184781628763</v>
+        <v>4.8</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -989,16 +981,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1006,16 +998,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.779513299854158</v>
+        <v>5.2</v>
       </c>
       <c r="B34" t="n">
-        <v>2.400184949523484</v>
+        <v>4.1</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.447076479298042</v>
+        <v>0.1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1023,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B35" t="n">
-        <v>2.630381715782132</v>
+        <v>4.2</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1040,16 +1032,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1057,16 +1049,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.45390138044997</v>
+        <v>1.2</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1074,16 +1066,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B38" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1091,16 +1083,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B39" t="n">
-        <v>1.249201118230253</v>
+        <v>3.6</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.447076479298042</v>
+        <v>0.1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1108,16 +1100,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1.748856263403368</v>
+        <v>4.4</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1125,16 +1117,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1142,16 +1134,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1159,16 +1151,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.627688392959717</v>
+        <v>4.5</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.743356843132151</v>
+        <v>2.3</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1176,16 +1168,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.748856263403368</v>
+        <v>4.4</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.397063953536367</v>
+        <v>1.3</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1193,16 +1185,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>1.019004351971607</v>
+        <v>3.5</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7889155578465374</v>
+        <v>0.6</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1210,16 +1202,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B46" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.056039392054748</v>
+        <v>1.9</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.052179926427139</v>
+        <v>0.4</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1227,16 +1219,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.264184781628763</v>
+        <v>4.8</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.18381211071744</v>
+        <v>0.3</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1244,16 +1236,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B48" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.226551672795557</v>
+        <v>1.6</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1261,16 +1253,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1.506520522516066</v>
+        <v>4.6</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1278,16 +1270,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.6583454294105071</v>
+        <v>5.3</v>
       </c>
       <c r="B50" t="n">
-        <v>1.4793978844889</v>
+        <v>3.7</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.28338909970916</v>
+        <v>1.5</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1295,16 +1287,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.340226526622764</v>
+        <v>1.4</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.315444295007741</v>
+        <v>0.2</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1312,16 +1304,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.401508368131565</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5354085615261401</v>
+        <v>4.7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1329,16 +1321,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1346,16 +1338,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.280340497687914</v>
+        <v>6.9</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6490834153533465</v>
+        <v>4.9</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1363,16 +1355,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.743356843132151</v>
+        <v>2.3</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1375465731309181</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1380,16 +1372,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7956690159133086</v>
+        <v>6.5</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4785711346125367</v>
+        <v>4.6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1397,16 +1389,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1414,16 +1406,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5354085615261401</v>
+        <v>4.7</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5274062850564712</v>
+        <v>1.6</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1431,16 +1423,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.513160076873505</v>
+        <v>2.4</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.260315415264304</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1448,16 +1440,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9168368863569595</v>
+        <v>6.6</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4785711346125367</v>
+        <v>4.6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1465,16 +1457,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.779513299854158</v>
+        <v>5.2</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08070914621731488</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -1482,16 +1474,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.43394714190809</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1466405614370976</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1499,16 +1491,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.06866179325140129</v>
+        <v>5.9</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2512214269581244</v>
+        <v>4.2</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1516,16 +1508,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.973553609390797</v>
+        <v>2.2</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1375465731309181</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -1533,16 +1525,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5354085615261401</v>
+        <v>4.7</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -1550,16 +1542,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.08980313452349442</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -1567,16 +1559,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3648962807853308</v>
+        <v>4.4</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -1584,16 +1576,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -1601,16 +1593,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C69" t="n">
-        <v>0.194384000044521</v>
+        <v>4.1</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -1618,16 +1610,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4321654045823549</v>
+        <v>6.2</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.973553609390797</v>
+        <v>2.2</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -1635,16 +1627,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08070914621731488</v>
+        <v>3.9</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.130754636395033</v>
+        <v>1.1</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -1652,16 +1644,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.06866179325140129</v>
+        <v>5.9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5922459884397431</v>
+        <v>4.8</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -1669,16 +1661,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1375465731309181</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -1686,16 +1678,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6490834153533465</v>
+        <v>4.9</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -1703,16 +1695,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5354085615261401</v>
+        <v>4.7</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0008775478952676988</v>
+        <v>1.2</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -1720,16 +1712,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3080588538717274</v>
+        <v>4.3</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -1737,16 +1729,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9168368863569595</v>
+        <v>6.6</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3648962807853308</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -1754,16 +1746,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.159172627244262</v>
+        <v>6.8</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5922459884397431</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -1771,16 +1763,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7059208422669494</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>0.659038469346772</v>
+        <v>1.7</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -1788,16 +1780,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -1805,16 +1797,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.052766544356211</v>
+        <v>2.6</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1466405614370976</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -1822,16 +1814,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.513160076873505</v>
+        <v>2.4</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0238717193037117</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.130754636395033</v>
+        <v>1.1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -1839,16 +1831,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.513160076873505</v>
+        <v>2.4</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.03296570760989124</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -1856,16 +1848,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08070914621731488</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0008775478952676988</v>
+        <v>1.2</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -1873,16 +1865,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5274062850564712</v>
+        <v>1.6</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -1890,16 +1882,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.5371775589668552</v>
+        <v>5.4</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -1907,16 +1899,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5274062850564712</v>
+        <v>1.6</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -1924,16 +1916,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5354085615261401</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -1941,16 +1933,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.743356843132151</v>
+        <v>2.3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3648962807853308</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -1958,16 +1950,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>0.194384000044521</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -1975,16 +1967,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1375465731309181</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -1992,16 +1984,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.4160096885232043</v>
+        <v>5.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.052766544356211</v>
+        <v>2.6</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3648962807853308</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0008775478952676988</v>
+        <v>1.2</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -2009,16 +2001,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4785711346125367</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -2026,16 +2018,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.052766544356211</v>
+        <v>2.6</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1375465731309181</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0008775478952676988</v>
+        <v>1.2</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -2043,16 +2035,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.021849040741461</v>
+        <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.743356843132151</v>
+        <v>2.3</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.260315415264304</v>
+        <v>3.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.262386820685334</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -2060,16 +2052,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2512214269581244</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -2077,16 +2069,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2512214269581244</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0008775478952676988</v>
+        <v>1.2</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -2094,16 +2086,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2512214269581244</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -2111,16 +2103,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4321654045823549</v>
+        <v>6.2</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3080588538717274</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -2128,16 +2120,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.9006811702978099</v>
+        <v>5.1</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.4308276960051133</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.130754636395033</v>
+        <v>1.1</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -2145,16 +2137,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C101" t="n">
-        <v>0.194384000044521</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1325097321855687</v>
+        <v>1.3</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -2162,16 +2154,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C102" t="n">
-        <v>1.274295111402981</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1.712095943669179</v>
+        <v>2.5</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
@@ -2179,16 +2171,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9223028379273737</v>
+        <v>1.9</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -2196,16 +2188,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.522676238575216</v>
+        <v>7.1</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>1.217457684489378</v>
+        <v>5.9</v>
       </c>
       <c r="D104" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -2213,16 +2205,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C105" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -2230,16 +2222,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7956690159133086</v>
+        <v>6.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>1.160620257575774</v>
+        <v>5.8</v>
       </c>
       <c r="D106" t="n">
-        <v>1.317199390798277</v>
+        <v>2.2</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
@@ -2247,16 +2239,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.128515590793473</v>
+        <v>7.6</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>1.615319672884599</v>
+        <v>6.6</v>
       </c>
       <c r="D107" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E107" t="n">
         <v>2</v>
@@ -2264,16 +2256,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.143016911185112</v>
+        <v>4.9</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4217337076989338</v>
+        <v>4.5</v>
       </c>
       <c r="D108" t="n">
-        <v>0.659038469346772</v>
+        <v>1.7</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
@@ -2281,16 +2273,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.765011979462519</v>
+        <v>7.3</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3621762455802724</v>
+        <v>2.9</v>
       </c>
       <c r="C109" t="n">
-        <v>1.44480739214379</v>
+        <v>6.3</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -2298,16 +2290,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C110" t="n">
-        <v>1.160620257575774</v>
+        <v>5.8</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E110" t="n">
         <v>2</v>
@@ -2315,16 +2307,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.643844109018868</v>
+        <v>7.2</v>
       </c>
       <c r="B111" t="n">
-        <v>1.249201118230253</v>
+        <v>3.6</v>
       </c>
       <c r="C111" t="n">
-        <v>1.331132538316584</v>
+        <v>6.1</v>
       </c>
       <c r="D111" t="n">
-        <v>1.712095943669179</v>
+        <v>2.5</v>
       </c>
       <c r="E111" t="n">
         <v>2</v>
@@ -2332,16 +2324,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7956690159133086</v>
+        <v>6.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D112" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -2349,16 +2341,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8764331230077588</v>
+        <v>5.3</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9223028379273737</v>
+        <v>1.9</v>
       </c>
       <c r="E113" t="n">
         <v>2</v>
@@ -2366,16 +2358,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.159172627244262</v>
+        <v>6.8</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9901079768349651</v>
+        <v>5.5</v>
       </c>
       <c r="D114" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
@@ -2383,16 +2375,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.1736739476359015</v>
+        <v>5.7</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7059208422669494</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -2400,16 +2392,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D116" t="n">
-        <v>1.580463759378878</v>
+        <v>2.4</v>
       </c>
       <c r="E116" t="n">
         <v>2</v>
@@ -2417,16 +2409,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8764331230077588</v>
+        <v>5.3</v>
       </c>
       <c r="D117" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E117" t="n">
         <v>2</v>
@@ -2434,16 +2426,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7956690159133086</v>
+        <v>6.5</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9901079768349651</v>
+        <v>5.5</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2451,16 +2443,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.249683461237124</v>
+        <v>7.7</v>
       </c>
       <c r="B119" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C119" t="n">
-        <v>1.672157099798203</v>
+        <v>6.7</v>
       </c>
       <c r="D119" t="n">
-        <v>1.317199390798277</v>
+        <v>2.2</v>
       </c>
       <c r="E119" t="n">
         <v>2</v>
@@ -2468,16 +2460,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.249683461237124</v>
+        <v>7.7</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.052766544356211</v>
+        <v>2.6</v>
       </c>
       <c r="C120" t="n">
-        <v>1.785831953625409</v>
+        <v>6.9</v>
       </c>
       <c r="D120" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -2485,16 +2477,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.973553609390797</v>
+        <v>2.2</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7059208422669494</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -2502,16 +2494,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.280340497687914</v>
+        <v>6.9</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C122" t="n">
-        <v>1.103782830662172</v>
+        <v>5.7</v>
       </c>
       <c r="D122" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
@@ -2519,16 +2511,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2948418180795535</v>
+        <v>5.6</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6490834153533465</v>
+        <v>4.9</v>
       </c>
       <c r="D123" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -2536,16 +2528,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.249683461237124</v>
+        <v>7.7</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C124" t="n">
-        <v>1.672157099798203</v>
+        <v>6.7</v>
       </c>
       <c r="D124" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -2553,16 +2545,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6490834153533465</v>
+        <v>4.9</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
@@ -2570,16 +2562,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C126" t="n">
-        <v>1.103782830662172</v>
+        <v>5.7</v>
       </c>
       <c r="D126" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
@@ -2587,16 +2579,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.643844109018868</v>
+        <v>7.2</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C127" t="n">
-        <v>1.274295111402981</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
@@ -2604,16 +2596,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4321654045823549</v>
+        <v>6.2</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5922459884397431</v>
+        <v>4.8</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -2621,16 +2613,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6490834153533465</v>
+        <v>4.9</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
@@ -2638,16 +2630,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C130" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D130" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -2655,16 +2647,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.643844109018868</v>
+        <v>7.2</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>1.160620257575774</v>
+        <v>5.8</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5274062850564712</v>
+        <v>1.6</v>
       </c>
       <c r="E131" t="n">
         <v>2</v>
@@ -2672,16 +2664,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.886179849906171</v>
+        <v>7.4</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C132" t="n">
-        <v>1.331132538316584</v>
+        <v>6.1</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9223028379273737</v>
+        <v>1.9</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -2689,16 +2681,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.492019202124427</v>
+        <v>7.9</v>
       </c>
       <c r="B133" t="n">
-        <v>1.709594650747545</v>
+        <v>3.8</v>
       </c>
       <c r="C133" t="n">
-        <v>1.501644819057394</v>
+        <v>6.4</v>
       </c>
       <c r="D133" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
@@ -2706,16 +2698,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C134" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D134" t="n">
-        <v>1.317199390798277</v>
+        <v>2.2</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
@@ -2723,16 +2715,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5923730118389191</v>
+        <v>2.8</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3957741007661703</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
@@ -2740,16 +2732,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.310997534138703</v>
+        <v>6.1</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.052766544356211</v>
+        <v>2.6</v>
       </c>
       <c r="C136" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2641419164758693</v>
+        <v>1.4</v>
       </c>
       <c r="E136" t="n">
         <v>2</v>
@@ -2757,16 +2749,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.249683461237124</v>
+        <v>7.7</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>1.331132538316584</v>
+        <v>6.1</v>
       </c>
       <c r="D137" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -2774,16 +2766,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C138" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D138" t="n">
-        <v>1.580463759378878</v>
+        <v>2.4</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
@@ -2791,16 +2783,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.6745011454696578</v>
+        <v>6.4</v>
       </c>
       <c r="B139" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9901079768349651</v>
+        <v>5.5</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -2808,16 +2800,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.1898296636950521</v>
+        <v>6</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5922459884397431</v>
+        <v>4.8</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
@@ -2825,16 +2817,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.280340497687914</v>
+        <v>6.9</v>
       </c>
       <c r="B141" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9332705499213622</v>
+        <v>5.4</v>
       </c>
       <c r="D141" t="n">
-        <v>1.185567206507976</v>
+        <v>2.1</v>
       </c>
       <c r="E141" t="n">
         <v>2</v>
@@ -2842,16 +2834,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B142" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C142" t="n">
-        <v>1.046945403748568</v>
+        <v>5.6</v>
       </c>
       <c r="D142" t="n">
-        <v>1.580463759378878</v>
+        <v>2.4</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
@@ -2859,16 +2851,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.280340497687914</v>
+        <v>6.9</v>
       </c>
       <c r="B143" t="n">
-        <v>0.09821728693702086</v>
+        <v>3.1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D143" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
@@ -2876,16 +2868,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.05250607719225064</v>
+        <v>5.8</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.8225697780975647</v>
+        <v>2.7</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9223028379273737</v>
+        <v>1.9</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -2893,16 +2885,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.159172627244262</v>
+        <v>6.8</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3284140531956675</v>
+        <v>3.2</v>
       </c>
       <c r="C145" t="n">
-        <v>1.217457684489378</v>
+        <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E145" t="n">
         <v>2</v>
@@ -2910,16 +2902,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5586108194543131</v>
+        <v>3.3</v>
       </c>
       <c r="C146" t="n">
-        <v>1.103782830662172</v>
+        <v>5.7</v>
       </c>
       <c r="D146" t="n">
-        <v>1.712095943669179</v>
+        <v>2.5</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -2927,16 +2919,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.038004756800611</v>
+        <v>6.7</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8195956960941558</v>
+        <v>5.2</v>
       </c>
       <c r="D147" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -2944,16 +2936,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.5533332750260058</v>
+        <v>6.3</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.282963310614858</v>
+        <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7059208422669494</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9223028379273737</v>
+        <v>1.9</v>
       </c>
       <c r="E148" t="n">
         <v>2</v>
@@ -2961,16 +2953,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7956690159133086</v>
+        <v>6.5</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8195956960941558</v>
+        <v>5.2</v>
       </c>
       <c r="D149" t="n">
-        <v>1.053935022217675</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
@@ -2978,16 +2970,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.4321654045823549</v>
+        <v>6.2</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7888075857129598</v>
+        <v>3.4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9332705499213622</v>
+        <v>5.4</v>
       </c>
       <c r="D150" t="n">
-        <v>1.448831575088577</v>
+        <v>2.3</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
@@ -2995,16 +2987,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.06866179325140129</v>
+        <v>5.9</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1319794793216258</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7627582691805523</v>
+        <v>5.1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7906706536370729</v>
+        <v>1.8</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
